--- a/SchedulingData/static8/pso/scheduling1_4.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_4.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>61.74</v>
+        <v>80.7</v>
       </c>
       <c r="E2" t="n">
-        <v>25.996</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.92</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>27.088</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>24.48</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="5">
@@ -523,549 +523,549 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45.92</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>117.3</v>
+        <v>119.3</v>
       </c>
       <c r="E5" t="n">
-        <v>23.04</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117.3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>173.7</v>
+        <v>62.12</v>
       </c>
       <c r="E6" t="n">
-        <v>19.02</v>
+        <v>26.448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.44</v>
+        <v>58.9</v>
       </c>
       <c r="E7" t="n">
-        <v>27.036</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>62.12</v>
       </c>
       <c r="D8" t="n">
-        <v>137.1</v>
+        <v>119.74</v>
       </c>
       <c r="E8" t="n">
-        <v>20.1</v>
+        <v>22.796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>173.7</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>229.04</v>
+        <v>57.6</v>
       </c>
       <c r="E9" t="n">
-        <v>16.116</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.3</v>
       </c>
       <c r="D10" t="n">
-        <v>87.7</v>
+        <v>160.02</v>
       </c>
       <c r="E10" t="n">
-        <v>24.4</v>
+        <v>17.448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>229.04</v>
+        <v>58.9</v>
       </c>
       <c r="D11" t="n">
-        <v>299.26</v>
+        <v>108.28</v>
       </c>
       <c r="E11" t="n">
-        <v>12.684</v>
+        <v>22.992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>70.40000000000001</v>
+        <v>126.64</v>
       </c>
       <c r="E12" t="n">
-        <v>24.66</v>
+        <v>21.156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>87.7</v>
+        <v>119.74</v>
       </c>
       <c r="D13" t="n">
-        <v>145.48</v>
+        <v>205</v>
       </c>
       <c r="E13" t="n">
-        <v>19.752</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>299.26</v>
+        <v>205</v>
       </c>
       <c r="D14" t="n">
-        <v>350.08</v>
+        <v>272.88</v>
       </c>
       <c r="E14" t="n">
-        <v>8.731999999999999</v>
+        <v>14.232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61.74</v>
+        <v>80.7</v>
       </c>
       <c r="D15" t="n">
-        <v>115.78</v>
+        <v>140.74</v>
       </c>
       <c r="E15" t="n">
-        <v>22.212</v>
+        <v>21.716</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>137.1</v>
+        <v>160.02</v>
       </c>
       <c r="D16" t="n">
-        <v>202.18</v>
+        <v>225.42</v>
       </c>
       <c r="E16" t="n">
-        <v>15.732</v>
+        <v>13.528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>115.78</v>
+        <v>108.28</v>
       </c>
       <c r="D17" t="n">
-        <v>180.98</v>
+        <v>183.12</v>
       </c>
       <c r="E17" t="n">
-        <v>18.292</v>
+        <v>20.088</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>202.18</v>
+        <v>272.88</v>
       </c>
       <c r="D18" t="n">
-        <v>262.98</v>
+        <v>326.74</v>
       </c>
       <c r="E18" t="n">
-        <v>12.252</v>
+        <v>10.956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>262.98</v>
+        <v>57.6</v>
       </c>
       <c r="D19" t="n">
-        <v>343.54</v>
+        <v>130.3</v>
       </c>
       <c r="E19" t="n">
-        <v>8.316000000000001</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46.44</v>
+        <v>225.42</v>
       </c>
       <c r="D20" t="n">
-        <v>132.68</v>
+        <v>311.7</v>
       </c>
       <c r="E20" t="n">
-        <v>24.012</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>180.98</v>
+        <v>140.74</v>
       </c>
       <c r="D21" t="n">
-        <v>219.58</v>
+        <v>195.34</v>
       </c>
       <c r="E21" t="n">
-        <v>15.572</v>
+        <v>17.876</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>132.68</v>
+        <v>130.3</v>
       </c>
       <c r="D22" t="n">
-        <v>220.18</v>
+        <v>189.2</v>
       </c>
       <c r="E22" t="n">
-        <v>20.372</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>350.08</v>
+        <v>326.74</v>
       </c>
       <c r="D23" t="n">
-        <v>421.72</v>
+        <v>397.64</v>
       </c>
       <c r="E23" t="n">
-        <v>3.688</v>
+        <v>5.976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>145.48</v>
+        <v>397.64</v>
       </c>
       <c r="D24" t="n">
-        <v>187.4</v>
+        <v>442.16</v>
       </c>
       <c r="E24" t="n">
-        <v>16.2</v>
+        <v>2.664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>187.4</v>
+        <v>442.16</v>
       </c>
       <c r="D25" t="n">
-        <v>246.58</v>
+        <v>528.4299999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>13.392</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>343.54</v>
+        <v>528.4299999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>388.14</v>
+        <v>593.41</v>
       </c>
       <c r="E26" t="n">
-        <v>5.476</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>220.18</v>
+        <v>126.64</v>
       </c>
       <c r="D27" t="n">
-        <v>281.98</v>
+        <v>177.98</v>
       </c>
       <c r="E27" t="n">
-        <v>17.812</v>
+        <v>17.152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>219.58</v>
+        <v>311.7</v>
       </c>
       <c r="D28" t="n">
-        <v>258.96</v>
+        <v>355.48</v>
       </c>
       <c r="E28" t="n">
-        <v>12.764</v>
+        <v>6.232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>246.58</v>
+        <v>189.2</v>
       </c>
       <c r="D29" t="n">
-        <v>301.92</v>
+        <v>259</v>
       </c>
       <c r="E29" t="n">
-        <v>10.488</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>70.40000000000001</v>
+        <v>177.98</v>
       </c>
       <c r="D30" t="n">
-        <v>125.82</v>
+        <v>221.38</v>
       </c>
       <c r="E30" t="n">
-        <v>21.228</v>
+        <v>14.432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>258.96</v>
+        <v>221.38</v>
       </c>
       <c r="D31" t="n">
-        <v>300</v>
+        <v>298.08</v>
       </c>
       <c r="E31" t="n">
-        <v>10.3</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>301.92</v>
+        <v>195.34</v>
       </c>
       <c r="D32" t="n">
-        <v>376.34</v>
+        <v>256.74</v>
       </c>
       <c r="E32" t="n">
-        <v>7.656</v>
+        <v>15.316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>125.82</v>
+        <v>183.12</v>
       </c>
       <c r="D33" t="n">
-        <v>197.62</v>
+        <v>230.42</v>
       </c>
       <c r="E33" t="n">
-        <v>17.148</v>
+        <v>16.488</v>
       </c>
     </row>
     <row r="34">
@@ -1074,36 +1074,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>376.34</v>
+        <v>298.08</v>
       </c>
       <c r="D34" t="n">
-        <v>432</v>
+        <v>344.18</v>
       </c>
       <c r="E34" t="n">
-        <v>3.72</v>
+        <v>6.872</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>421.72</v>
+        <v>344.18</v>
       </c>
       <c r="D35" t="n">
-        <v>470.06</v>
+        <v>410.98</v>
       </c>
       <c r="E35" t="n">
-        <v>0.984</v>
+        <v>3.312</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>470.06</v>
+        <v>355.48</v>
       </c>
       <c r="D36" t="n">
-        <v>554.79</v>
+        <v>399.86</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>3.424</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>281.98</v>
+        <v>230.42</v>
       </c>
       <c r="D37" t="n">
-        <v>356.18</v>
+        <v>303.32</v>
       </c>
       <c r="E37" t="n">
-        <v>13.972</v>
+        <v>12.288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>300</v>
+        <v>303.32</v>
       </c>
       <c r="D38" t="n">
-        <v>347.82</v>
+        <v>346.56</v>
       </c>
       <c r="E38" t="n">
-        <v>6.648</v>
+        <v>9.584</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>432</v>
+        <v>259</v>
       </c>
       <c r="D39" t="n">
-        <v>493.88</v>
+        <v>330.1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.132</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>493.88</v>
+        <v>256.74</v>
       </c>
       <c r="D40" t="n">
-        <v>565.62</v>
+        <v>320.58</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>11.532</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>388.14</v>
+        <v>330.1</v>
       </c>
       <c r="D41" t="n">
-        <v>490.48</v>
+        <v>380.76</v>
       </c>
       <c r="E41" t="n">
-        <v>1.332</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="42">
@@ -1226,131 +1226,131 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>490.48</v>
+        <v>346.56</v>
       </c>
       <c r="D42" t="n">
-        <v>574.62</v>
+        <v>397.22</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>5.648</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>565.62</v>
+        <v>397.22</v>
       </c>
       <c r="D43" t="n">
-        <v>635.02</v>
+        <v>488.52</v>
       </c>
       <c r="E43" t="n">
-        <v>26.7</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>554.79</v>
+        <v>488.52</v>
       </c>
       <c r="D44" t="n">
-        <v>622.39</v>
+        <v>565.0599999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>25.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>635.02</v>
+        <v>399.86</v>
       </c>
       <c r="D45" t="n">
-        <v>673.9</v>
+        <v>494.31</v>
       </c>
       <c r="E45" t="n">
-        <v>23.452</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>197.62</v>
+        <v>494.31</v>
       </c>
       <c r="D46" t="n">
-        <v>258.02</v>
+        <v>573.67</v>
       </c>
       <c r="E46" t="n">
-        <v>12.728</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>622.39</v>
+        <v>593.41</v>
       </c>
       <c r="D47" t="n">
-        <v>681.6900000000001</v>
+        <v>678.29</v>
       </c>
       <c r="E47" t="n">
-        <v>22.12</v>
+        <v>21.824</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>673.9</v>
+        <v>380.76</v>
       </c>
       <c r="D48" t="n">
-        <v>741.08</v>
+        <v>442.64</v>
       </c>
       <c r="E48" t="n">
-        <v>19.364</v>
+        <v>1.616</v>
       </c>
     </row>
     <row r="49">
@@ -1359,112 +1359,112 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>347.82</v>
+        <v>442.64</v>
       </c>
       <c r="D49" t="n">
-        <v>421.22</v>
+        <v>516.41</v>
       </c>
       <c r="E49" t="n">
-        <v>2.448</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>574.62</v>
+        <v>410.98</v>
       </c>
       <c r="D50" t="n">
-        <v>643.42</v>
+        <v>495.86</v>
       </c>
       <c r="E50" t="n">
-        <v>25.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>643.42</v>
+        <v>495.86</v>
       </c>
       <c r="D51" t="n">
-        <v>690.02</v>
+        <v>583.24</v>
       </c>
       <c r="E51" t="n">
-        <v>22.28</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>258.02</v>
+        <v>516.41</v>
       </c>
       <c r="D52" t="n">
-        <v>310.22</v>
+        <v>568.33</v>
       </c>
       <c r="E52" t="n">
-        <v>9.128</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>690.02</v>
+        <v>320.58</v>
       </c>
       <c r="D53" t="n">
-        <v>761.16</v>
+        <v>364.88</v>
       </c>
       <c r="E53" t="n">
-        <v>18.276</v>
+        <v>8.231999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>310.22</v>
+        <v>583.24</v>
       </c>
       <c r="D54" t="n">
-        <v>390.48</v>
+        <v>657.84</v>
       </c>
       <c r="E54" t="n">
-        <v>5.212</v>
+        <v>23.072</v>
       </c>
     </row>
     <row r="55">
@@ -1473,55 +1473,55 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>681.6900000000001</v>
+        <v>573.67</v>
       </c>
       <c r="D55" t="n">
-        <v>756.33</v>
+        <v>614.11</v>
       </c>
       <c r="E55" t="n">
-        <v>18.256</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>356.18</v>
+        <v>364.88</v>
       </c>
       <c r="D56" t="n">
-        <v>417.98</v>
+        <v>434.78</v>
       </c>
       <c r="E56" t="n">
-        <v>10.412</v>
+        <v>3.852</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>421.22</v>
+        <v>565.0599999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>498.22</v>
+        <v>640.98</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="58">
@@ -1530,90 +1530,90 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>498.22</v>
+        <v>568.33</v>
       </c>
       <c r="D58" t="n">
-        <v>545.14</v>
+        <v>669.27</v>
       </c>
       <c r="E58" t="n">
-        <v>27.008</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>417.98</v>
+        <v>657.84</v>
       </c>
       <c r="D59" t="n">
-        <v>479.08</v>
+        <v>757.54</v>
       </c>
       <c r="E59" t="n">
-        <v>5.432</v>
+        <v>19.172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>479.08</v>
+        <v>614.11</v>
       </c>
       <c r="D60" t="n">
-        <v>523.6</v>
+        <v>674.23</v>
       </c>
       <c r="E60" t="n">
-        <v>2.12</v>
+        <v>20.388</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>756.33</v>
+        <v>640.98</v>
       </c>
       <c r="D61" t="n">
-        <v>820.59</v>
+        <v>705.74</v>
       </c>
       <c r="E61" t="n">
-        <v>14.46</v>
+        <v>23.712</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>523.6</v>
+        <v>434.78</v>
       </c>
       <c r="D62" t="n">
-        <v>610.96</v>
+        <v>508.78</v>
       </c>
       <c r="E62" t="n">
         <v>30</v>
@@ -1621,78 +1621,78 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>610.96</v>
+        <v>508.78</v>
       </c>
       <c r="D63" t="n">
-        <v>685.02</v>
+        <v>555.3</v>
       </c>
       <c r="E63" t="n">
-        <v>26.724</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>545.14</v>
+        <v>555.3</v>
       </c>
       <c r="D64" t="n">
-        <v>635.46</v>
+        <v>636.8</v>
       </c>
       <c r="E64" t="n">
-        <v>23.576</v>
+        <v>21.968</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>390.48</v>
+        <v>674.23</v>
       </c>
       <c r="D65" t="n">
-        <v>440.24</v>
+        <v>750.47</v>
       </c>
       <c r="E65" t="n">
-        <v>2.356</v>
+        <v>17.364</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>741.08</v>
+        <v>669.27</v>
       </c>
       <c r="D66" t="n">
-        <v>804.42</v>
+        <v>743.79</v>
       </c>
       <c r="E66" t="n">
-        <v>16.66</v>
+        <v>20.172</v>
       </c>
     </row>
     <row r="67">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>440.24</v>
+        <v>636.8</v>
       </c>
       <c r="D67" t="n">
-        <v>536.9299999999999</v>
+        <v>697.34</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>19.004</v>
       </c>
     </row>
     <row r="68">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>536.9299999999999</v>
+        <v>697.34</v>
       </c>
       <c r="D68" t="n">
-        <v>591.73</v>
+        <v>775.1799999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>26.22</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="69">
@@ -1739,36 +1739,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>685.02</v>
+        <v>678.29</v>
       </c>
       <c r="D69" t="n">
-        <v>773.9</v>
+        <v>743.8099999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>22.916</v>
+        <v>18.392</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>591.73</v>
+        <v>743.8099999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>693.33</v>
+        <v>779.75</v>
       </c>
       <c r="E70" t="n">
-        <v>22.14</v>
+        <v>15.928</v>
       </c>
     </row>
     <row r="71">
@@ -1777,17 +1777,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>761.16</v>
+        <v>705.74</v>
       </c>
       <c r="D71" t="n">
-        <v>851.0599999999999</v>
+        <v>768.88</v>
       </c>
       <c r="E71" t="n">
-        <v>14.376</v>
+        <v>21.008</v>
       </c>
     </row>
   </sheetData>
